--- a/biology/Botanique/Belonophora/Belonophora.xlsx
+++ b/biology/Botanique/Belonophora/Belonophora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Belonophora est un genre de plantes à fleurs de la famille des Rubiaceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,15 +551,17 @@
           <t>Liste des sous-espèces et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (25 juillet 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (25 juillet 2017) :
 Belonophora coffeoides Hook.f.
 Belonophora coriacea Hoyle
 Belonophora ongensis S.E.Dawson &amp; Cheek
 Belonophora talbotii (Wernham) Keay
 Belonophora wernhamii Hutch. &amp; Dalziel
-Selon World Checklist of Selected Plant Families (WCSP)  (25 juillet 2017)[3] :
+Selon World Checklist of Selected Plant Families (WCSP)  (25 juillet 2017) :
 Belonophora coffeoides Hook.f. (1873)
 sous-espèce Belonophora coffeoides subsp. coffeoides
 sous-espèce Belonophora coffeoides subsp. hypoglauca (Welw. ex Hiern) S.E.Dawson &amp; Cheek (2000)
@@ -553,17 +569,17 @@
 Belonophora ongensis S.E.Dawson &amp; Cheek (2000)
 Belonophora talbotii (Wernham) Keay (1958)
 Belonophora wernhamii Hutch. &amp; Dalziel (1931)
-Selon NCBI  (25 juillet 2017)[4] :
+Selon NCBI  (25 juillet 2017) :
 Belonophora coriacea
 Belonophora talbotii
 Belonophora wernhamii
-Selon The Plant List            (25 juillet 2017)[5] :
+Selon The Plant List            (25 juillet 2017) :
 Belonophora coffeoides Hook.f.
 Belonophora coriacea Hoyle
 Belonophora ongensis S.E.Dawson &amp; Cheek
 Belonophora talbotii (Wernham) Keay
 Belonophora wernhamii Hutch. &amp; Dalziel
-Selon Tropicos                                           (25 juillet 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (25 juillet 2017) (Attention liste brute contenant possiblement des synonymes) :
 Belonophora coffeoides Hook. f.
 Belonophora coriacea Hoyle
 Belonophora gilletii A. Chev.
